--- a/ArticleManage/main_working_folder/output_folders/Data 15 Activated carbon from cotton/Data15_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 15 Activated carbon from cotton/Data15_all_graphs_excel.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 1  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 2  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 3  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 4  0-1-0-600 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 5  0-1-0-600 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 6  0-1-0-600 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1 7  0-1-0-600 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1 8  0-1-0-600 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1 1  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 2  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 3  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 4  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 5  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 6  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 7  0&amp;1&amp;0&amp;600 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1 8  0&amp;1&amp;0&amp;600 " sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 1  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 1  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 1  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 1  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -474,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 2  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 2  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 2  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 2  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -788,12 +788,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 3  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 3  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 3  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 3  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1102,12 +1102,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 4  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 4  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 4  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 4  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1416,12 +1416,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 5  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 5  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 5  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 5  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1730,12 +1730,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 6  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 6  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 6  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 6  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2044,12 +2044,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 7  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 7  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 7  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 7  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2358,12 +2358,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 8  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 8  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 8  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 8  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
